--- a/web/单选题/《Web前端技术》复习题（单选三）.xlsx
+++ b/web/单选题/《Web前端技术》复习题（单选三）.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="253">
   <si>
     <r>
       <rPr>
@@ -2017,7 +2017,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2098,11 +2098,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2285,7 +2280,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2373,12 +2368,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2624,152 +2613,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2845,31 +2834,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3229,11 +3215,11 @@
   <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3266,16 +3252,16 @@
       <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="25">
         <f>SUM(I3:I52)</f>
-        <v>44</v>
-      </c>
-      <c r="AA1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="32">
+      <c r="AB1" s="31">
         <f>AB2*2</f>
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:28">
@@ -3301,32 +3287,32 @@
       <c r="H2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="33" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="34">
+      <c r="AB2" s="33">
         <f>SUM(AB3:AB52)</f>
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -3352,31 +3338,31 @@
       <c r="H3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <f>IF(G3=H3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="35" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="34">
+      <c r="AB3" s="33">
         <f>IF(H3=AA3,1,0)</f>
         <v>1</v>
       </c>
@@ -3404,31 +3390,31 @@
       <c r="H4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <f t="shared" ref="I4:I52" si="0">IF(G4=H4,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="35" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="33">
         <f t="shared" ref="AB4:AB52" si="1">IF(H4=AA4,1,0)</f>
         <v>1</v>
       </c>
@@ -3456,31 +3442,31 @@
       <c r="H5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="35" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="34">
+      <c r="AB5" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3508,31 +3494,31 @@
       <c r="H6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="35" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB6" s="34">
+      <c r="AB6" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3541,50 +3527,50 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="35" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3612,31 +3598,31 @@
       <c r="H8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="35" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB8" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3664,31 +3650,31 @@
       <c r="H9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="35" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB9" s="34">
+      <c r="AB9" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3716,31 +3702,31 @@
       <c r="H10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="35" t="s">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB10" s="34">
+      <c r="AB10" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3768,31 +3754,31 @@
       <c r="H11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="35" t="s">
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="34">
+      <c r="AB11" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3820,31 +3806,31 @@
       <c r="H12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="35" t="s">
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3872,31 +3858,31 @@
       <c r="H13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="35" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB13" s="34">
+      <c r="AB13" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3924,31 +3910,31 @@
       <c r="H14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="35" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB14" s="34">
+      <c r="AB14" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3976,31 +3962,31 @@
       <c r="H15" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="35" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4028,31 +4014,31 @@
       <c r="H16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="35" t="s">
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB16" s="34">
+      <c r="AB16" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4080,31 +4066,31 @@
       <c r="H17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="35" t="s">
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB17" s="34">
+      <c r="AB17" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4132,31 +4118,31 @@
       <c r="H18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="35" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB18" s="34">
+      <c r="AB18" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4184,31 +4170,31 @@
       <c r="H19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="35" t="s">
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB19" s="34">
+      <c r="AB19" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4236,31 +4222,31 @@
       <c r="H20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="35" t="s">
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB20" s="34">
+      <c r="AB20" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4288,31 +4274,31 @@
       <c r="H21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="35" t="s">
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB21" s="34">
+      <c r="AB21" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4337,32 +4323,34 @@
         <v>109</v>
       </c>
       <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="29">
+      <c r="H22" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB22" s="34">
+      <c r="AB22" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4390,31 +4378,31 @@
       <c r="H23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="35" t="s">
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB23" s="34">
+      <c r="AB23" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4442,31 +4430,31 @@
       <c r="H24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="35" t="s">
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB24" s="34">
+      <c r="AB24" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4494,31 +4482,31 @@
       <c r="H25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="35" t="s">
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB25" s="34">
+      <c r="AB25" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4546,31 +4534,31 @@
       <c r="H26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="35" t="s">
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB26" s="34">
+      <c r="AB26" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4598,31 +4586,31 @@
       <c r="H27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="35" t="s">
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB27" s="34">
+      <c r="AB27" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4650,31 +4638,31 @@
       <c r="H28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="35" t="s">
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB28" s="34">
+      <c r="AB28" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4702,31 +4690,31 @@
       <c r="H29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="35" t="s">
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB29" s="34">
+      <c r="AB29" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4754,31 +4742,31 @@
       <c r="H30" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="35" t="s">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB30" s="34">
+      <c r="AB30" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4806,31 +4794,31 @@
       <c r="H31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="35" t="s">
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB31" s="34">
+      <c r="AB31" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4855,34 +4843,36 @@
         <v>157</v>
       </c>
       <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="29">
+      <c r="H32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB32" s="34">
+      <c r="AB32" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -4905,34 +4895,36 @@
         <v>162</v>
       </c>
       <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="29">
+      <c r="H33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB33" s="34">
+      <c r="AB33" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -4955,34 +4947,36 @@
         <v>167</v>
       </c>
       <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="29">
+      <c r="H34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB34" s="34">
+      <c r="AB34" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5005,34 +4999,36 @@
         <v>172</v>
       </c>
       <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="29">
+      <c r="H35" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB35" s="34">
+      <c r="AB35" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5055,34 +5051,36 @@
         <v>177</v>
       </c>
       <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="29">
+      <c r="H36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB36" s="34">
+      <c r="AB36" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5105,34 +5103,36 @@
         <v>182</v>
       </c>
       <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="29">
+      <c r="H37" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB37" s="34">
+      <c r="AB37" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5155,34 +5155,36 @@
         <v>187</v>
       </c>
       <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="29">
+      <c r="H38" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB38" s="34">
+      <c r="AB38" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5205,34 +5207,36 @@
         <v>192</v>
       </c>
       <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="29">
+      <c r="H39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB39" s="34">
+      <c r="AB39" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5255,34 +5259,36 @@
         <v>196</v>
       </c>
       <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="29">
+      <c r="H40" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB40" s="34">
+      <c r="AB40" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5305,34 +5311,36 @@
         <v>201</v>
       </c>
       <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="29">
+      <c r="H41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB41" s="34">
+      <c r="AB41" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5355,34 +5363,36 @@
         <v>206</v>
       </c>
       <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="29">
+      <c r="H42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="34">
+      <c r="AB42" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5405,34 +5415,36 @@
         <v>211</v>
       </c>
       <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="29">
+      <c r="H43" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB43" s="34">
+      <c r="AB43" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5455,34 +5467,36 @@
         <v>216</v>
       </c>
       <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="29">
+      <c r="H44" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB44" s="34">
+      <c r="AB44" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5505,34 +5519,36 @@
         <v>221</v>
       </c>
       <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="29">
+      <c r="H45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB45" s="34">
+      <c r="AB45" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5555,34 +5571,36 @@
         <v>226</v>
       </c>
       <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="29">
+      <c r="H46" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB46" s="34">
+      <c r="AB46" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5605,34 +5623,36 @@
         <v>230</v>
       </c>
       <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="29">
+      <c r="H47" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="34">
+      <c r="AB47" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5655,34 +5675,36 @@
         <v>235</v>
       </c>
       <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="29">
+      <c r="H48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB48" s="34">
+      <c r="AB48" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5705,34 +5727,36 @@
         <v>240</v>
       </c>
       <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="29">
+      <c r="H49" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB49" s="34">
+      <c r="AB49" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5755,34 +5779,36 @@
         <v>245</v>
       </c>
       <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="29">
+      <c r="H50" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB50" s="34">
+      <c r="AB50" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5805,34 +5831,36 @@
         <v>250</v>
       </c>
       <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="29">
+      <c r="H51" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB51" s="34">
+      <c r="AB51" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:28">
@@ -5855,34 +5883,36 @@
         <v>252</v>
       </c>
       <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="29">
+      <c r="H52" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AB52" s="34">
+      <c r="AB52" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
